--- a/biology/Zoologie/Caligo_idomeneus/Caligo_idomeneus.xlsx
+++ b/biology/Zoologie/Caligo_idomeneus/Caligo_idomeneus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caligo idomeneus est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Morphinae, de la tribu des Brassolini, et du genre Caligo.
 </t>
@@ -511,11 +523,11 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Caligo idomeneus a été décrit par le naturaliste suédois Carl von Linné en 1758 sous le nom initial de Papilio idomeneus[1].
-Nom vernaculaire
-Caligo idomeneus se nomme Idomeneus Giant Owl en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Caligo idomeneus a été décrit par le naturaliste suédois Carl von Linné en 1758 sous le nom initial de Papilio idomeneus.
 </t>
         </is>
       </c>
@@ -541,45 +553,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caligo idomeneus se nomme Idomeneus Giant Owl en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Caligo_idomeneus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caligo_idomeneus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il fait partie du groupe du Caligo eurilochus. 
 Liste des Sous-espèces
 Caligo idomeneus idomeneus Linné, 1758
 Caligo idomeneus ariphron Fruhstorfer, 1910; présent au Brésil.
 Caligo idomeneus idomenides Fruhstorfer, 1903; présent en Colombie, en Bolivie et au Pérou.
-Caligo idomeneus rhoetus Staudinger, [1886]; présent au Brésil[3].</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+Caligo idomeneus rhoetus Staudinger, ; présent au Brésil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Caligo_idomeneus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Caligo_idomeneus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Caligo idomeneus est un grand papillon d'une envergure de 110 mm à 140 mm au bord externe des ailes antérieures concave et au bord externe des ailes postérieures festonné. Le dessus est bleu-vert nacré avec une large bordure marron au bord externe des ailes antérieures et des ailes postérieures.
 Le revers est marron marbré d'ocre doré, avec un très gros ocelle noir cerclé de jaune sur chaque aile postérieure mimant les yeux d'un hibou ou d'une grenouille arboricole.
@@ -587,38 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Caligo_idomeneus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Caligo_idomeneus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Musa et Heliconia latispatha[3]. 
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -640,15 +661,88 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Musa et Heliconia latispatha. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Caligo_idomeneus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caligo_idomeneus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caligo idomeneus est présent en Colombie, en Bolivie, au Pérou, au Brésil, au Surinam et en Guyane[3].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caligo idomeneus est présent en Colombie, en Bolivie, au Pérou, au Brésil, au Surinam et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Caligo_idomeneus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caligo_idomeneus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
